--- a/analysis/mails_01/P10_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P10_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,6 +63,15 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1499</t>
+  </si>
+  <si>
     <t xml:space="preserve">streams</t>
   </si>
   <si>
@@ -90,28 +99,70 @@
     <t xml:space="preserve">MFD03532</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1441</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03533</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1494</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03534</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1503</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03542</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4231</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03543</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4247</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03544</t>
   </si>
   <si>
+    <t xml:space="preserve">57.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4256</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03545</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03911</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-09-06</t>
+    <t xml:space="preserve">06/09/2020 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5704</t>
   </si>
   <si>
     <t xml:space="preserve">3200</t>
@@ -120,7 +171,13 @@
     <t xml:space="preserve">MFD03936</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-09-17</t>
+    <t xml:space="preserve">17/09/2020 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2293</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -196,7 +253,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +263,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE0A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE38140"/>
       </patternFill>
     </fill>
   </fills>
@@ -221,10 +283,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,401 +632,413 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="n">
-        <v>57.5766</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.1499</v>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="n">
-        <v>57.5893</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.1441</v>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="n">
-        <v>57.5906</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.1494</v>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" t="n">
-        <v>57.5907</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10.1503</v>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="n">
-        <v>57.5824</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.4231</v>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="n">
-        <v>57.5792</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.4247</v>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="n">
-        <v>57.58</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10.4256</v>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="n">
-        <v>57.58</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10.4256</v>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56.9099</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.5704</v>
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="n">
-        <v>57.3037</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10.2293</v>
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -982,10 +1057,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -993,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1001,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1009,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -1017,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1025,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1033,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -1041,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -1049,7 +1124,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1057,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -1065,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1073,7 +1148,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -1089,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -1097,7 +1172,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P10_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P10_3/table_to_fill.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 00:00</t>
+    <t xml:space="preserve">2020-10-09</t>
   </si>
   <si>
     <t xml:space="preserve">57.5766</t>
@@ -156,7 +156,7 @@
     <t xml:space="preserve">MFD03911</t>
   </si>
   <si>
-    <t xml:space="preserve">06/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-06</t>
   </si>
   <si>
     <t xml:space="preserve">56.9099</t>
@@ -171,7 +171,7 @@
     <t xml:space="preserve">MFD03936</t>
   </si>
   <si>
-    <t xml:space="preserve">17/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-17</t>
   </si>
   <si>
     <t xml:space="preserve">57.3037</t>
